--- a/DeongeonManagement/Assets/Data/Trait/Trait_EDIT.xlsx
+++ b/DeongeonManagement/Assets/Data/Trait/Trait_EDIT.xlsx
@@ -19,38 +19,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="218">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TraitName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name_KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Detail_KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Detail_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name_JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Detail_JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Reconfigure</t>
@@ -141,167 +141,167 @@
   </si>
   <si>
     <t>VeteranC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VeteranB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VeteranA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베테랑C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베테랑B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베테랑A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ベテランC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ベテランB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ベテランA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엘리트C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EliteC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EliteB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EliteA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShirkingC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShirkingB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShirkingA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SurvivabilityC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SurvivabilityB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SurvivabilityA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SurvivabilityS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DiscreetC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DiscreetB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DiscreetA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RuthlessC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RuthlessB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RuthlessA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엘리트B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>엘리트A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>꾀병C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>꾀병B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>꾀병A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생존력C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생존력B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생존력A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>생존력S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신중함C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신중함B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신중함A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무자비C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무자비B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무자비A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,7 +328,7 @@
       </rPr>
       <t>トC</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,7 +355,7 @@
       </rPr>
       <t>トB</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -382,35 +382,35 @@
       </rPr>
       <t>トA</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>サボりC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>サボりB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>サボりA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生存力C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生存力B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生存力A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生存力S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -426,7 +426,7 @@
       </rPr>
       <t>重さC</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -442,7 +442,7 @@
       </rPr>
       <t>重さB</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -458,19 +458,19 @@
       </rPr>
       <t>重さA</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>無慈悲C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>無慈悲B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>無慈悲A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부상 하루 뒤 회복</t>
@@ -492,84 +492,84 @@
   </si>
   <si>
     <t>공격 시 데미지의 50%의 추가공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모든 스탯 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모든 스탯 +2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모든 스탯 +3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>레벨 업 시 스탯 상승률 UP</t>
   </si>
   <si>
     <t>레벨 업 시 스탯 상승률 UP+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>레벨 업 시 스탯 상승률 UP++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부상 회복 마나 -10%</t>
   </si>
   <si>
     <t>부상 회복 마나 -20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부상 회복 마나 -30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HP +15</t>
   </si>
   <si>
     <t>부상당하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HP +30</t>
   </si>
   <si>
     <t>HP +30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HP +50</t>
   </si>
   <si>
     <t>HP +50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전투로 얻는 경험치 +20%</t>
   </si>
   <si>
     <t>전투로 얻는 경험치 +40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>전투로 얻는 경험치 +60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ATK +3</t>
   </si>
   <si>
     <t>ATK +6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ATK +9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25% DEF as true damage</t>
@@ -624,15 +624,15 @@
   </si>
   <si>
     <t>Permanent +1 HP on kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Recover after 1 day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Heal 10% max HP at battle start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1日後に回復</t>
@@ -1066,19 +1066,658 @@
       </rPr>
       <t>破時 - HP永久+1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_KR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_JP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Trait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有特性</t>
+  </si>
+  <si>
+    <t>배치상태로 4일 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치상태로 7일 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치상태로 10일 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치상태로 15일 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 횟수 10회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 횟수 15회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 횟수 20회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 횟수 5회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 횟수 10회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 횟수 15회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부상 3회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부상 4회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부상 5회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기상태로 4일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기상태로 6일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기상태로 8일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 승리 10회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 승리 15회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 승리 20회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戦闘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>訓練回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>訓練回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>訓練回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負傷3回</t>
+  </si>
+  <si>
+    <t>負傷4回</t>
+  </si>
+  <si>
+    <t>負傷5回</t>
+  </si>
+  <si>
+    <t>Injured 3 times</t>
+  </si>
+  <si>
+    <t>Injured 4 times</t>
+  </si>
+  <si>
+    <t>Injured 5 times</t>
+  </si>
+  <si>
+    <t>Training 5 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training 10 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training 15 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle 20 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle 10 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle 15 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle Victory 15 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle Victory 20 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle Victory 10 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戦闘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勝利10回</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戦闘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勝利15回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戦闘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勝利20回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で4日間生存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で7日間生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で10日間生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で15日間生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 days on standby</t>
+  </si>
+  <si>
+    <t>6 days on standby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 days on standby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive 4 days on placement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive 7 days on placement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive 10 days on placement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive 15 days on placement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で4日間</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で6日間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待機</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>態で8日間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,7 +1758,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1400,23 +2039,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1430,19 +2070,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1456,19 +2105,28 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>134</v>
       </c>
+      <c r="K3" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1482,19 +2140,28 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1508,19 +2175,28 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>156</v>
       </c>
+      <c r="K5" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1534,19 +2210,28 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>136</v>
       </c>
+      <c r="K6" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1560,19 +2245,28 @@
         <v>90</v>
       </c>
       <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>115</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>137</v>
       </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1586,19 +2280,28 @@
         <v>91</v>
       </c>
       <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1612,19 +2315,28 @@
         <v>92</v>
       </c>
       <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>117</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>139</v>
       </c>
+      <c r="K9" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201</v>
       </c>
@@ -1638,19 +2350,28 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>140</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>202</v>
       </c>
@@ -1664,19 +2385,28 @@
         <v>94</v>
       </c>
       <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>119</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>141</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>203</v>
       </c>
@@ -1690,19 +2420,28 @@
         <v>95</v>
       </c>
       <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>120</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>142</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>301</v>
       </c>
@@ -1716,19 +2455,28 @@
         <v>96</v>
       </c>
       <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" t="s">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>143</v>
       </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>302</v>
       </c>
@@ -1742,19 +2490,28 @@
         <v>97</v>
       </c>
       <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>122</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" t="s">
         <v>71</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>144</v>
       </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>303</v>
       </c>
@@ -1768,19 +2525,28 @@
         <v>98</v>
       </c>
       <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>123</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>145</v>
       </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>401</v>
       </c>
@@ -1794,19 +2560,28 @@
         <v>99</v>
       </c>
       <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>124</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" t="s">
         <v>73</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>146</v>
       </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>402</v>
       </c>
@@ -1820,19 +2595,28 @@
         <v>100</v>
       </c>
       <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>125</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" t="s">
         <v>74</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>147</v>
       </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>403</v>
       </c>
@@ -1846,19 +2630,28 @@
         <v>101</v>
       </c>
       <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" t="s">
         <v>75</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>148</v>
       </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>501</v>
       </c>
@@ -1872,19 +2665,28 @@
         <v>102</v>
       </c>
       <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>102</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" t="s">
         <v>76</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>149</v>
       </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>502</v>
       </c>
@@ -1898,19 +2700,28 @@
         <v>105</v>
       </c>
       <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>104</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>150</v>
       </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>503</v>
       </c>
@@ -1924,19 +2735,28 @@
         <v>107</v>
       </c>
       <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>106</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" t="s">
         <v>78</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>151</v>
       </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>504</v>
       </c>
@@ -1950,19 +2770,28 @@
         <v>103</v>
       </c>
       <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>127</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" t="s">
         <v>79</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>152</v>
       </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>601</v>
       </c>
@@ -1976,19 +2805,28 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="K31" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>602</v>
       </c>
@@ -2002,19 +2840,28 @@
         <v>109</v>
       </c>
       <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>603</v>
       </c>
@@ -2028,19 +2875,28 @@
         <v>110</v>
       </c>
       <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="K33" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>701</v>
       </c>
@@ -2054,19 +2910,28 @@
         <v>111</v>
       </c>
       <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>111</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
         <v>83</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>111</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>702</v>
       </c>
@@ -2080,19 +2945,28 @@
         <v>112</v>
       </c>
       <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
         <v>53</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>112</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" t="s">
         <v>84</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>112</v>
       </c>
+      <c r="K36" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>703</v>
       </c>
@@ -2106,20 +2980,29 @@
         <v>113</v>
       </c>
       <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
         <v>54</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>113</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" t="s">
         <v>85</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>113</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
